--- a/CalcAvtoUSA_New1/js/price_copart.xlsx
+++ b/CalcAvtoUSA_New1/js/price_copart.xlsx
@@ -892,10 +892,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -904,6 +900,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1153,10 +1153,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1209,7 +1209,9 @@
       <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>1250</v>
+      </c>
       <c r="J3" s="7">
         <v>1250</v>
       </c>
@@ -1239,7 +1241,9 @@
       <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6">
+        <v>1250</v>
+      </c>
       <c r="J4" s="7">
         <v>1250</v>
       </c>
@@ -1426,7 +1430,7 @@
       <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="9">
@@ -1455,10 +1459,10 @@
       <c r="D11" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
@@ -1653,10 +1657,10 @@
       <c r="D20" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>235</v>
       </c>
       <c r="I20" s="8"/>
@@ -1733,7 +1737,7 @@
       <c r="D25" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H25">
@@ -1753,7 +1757,7 @@
       <c r="D26" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>237</v>
       </c>
       <c r="H26">
